--- a/FCC training/Eng - The Game.xlsx
+++ b/FCC training/Eng - The Game.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FC9EE-D195-4967-A594-70E5101E1F16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD426906-DDEF-4526-9CC1-A4C8381E6F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WEALTH" sheetId="14" r:id="rId1"/>
@@ -2804,20 +2804,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2875,6 +2861,20 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2949,47 +2949,47 @@
     <sortCondition ref="D1:D354"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="11" xr3:uid="{9868625D-7E5B-4704-BDAF-3E1E05CA2347}" name="Sort" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{89C26884-39A8-466B-8DB0-B2B249025A2D}" name="Line" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{B2D0B26B-6C3E-46C7-BA2F-E97B0B1F81D3}" name="Stage" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{C6D3C223-B35C-49D9-9424-E7E84978652C}" name="Value" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{90FA41A8-E060-47AD-98B3-46FB40FD2CFA}" name="A_C_S" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{F0B21C7E-F0EE-41FE-9E3E-6E3542E2C9CC}" name="tr" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{CF1F4F43-57E3-4043-87DF-28919C026D33}" name="en" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{9868625D-7E5B-4704-BDAF-3E1E05CA2347}" name="Sort" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{89C26884-39A8-466B-8DB0-B2B249025A2D}" name="Line" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B2D0B26B-6C3E-46C7-BA2F-E97B0B1F81D3}" name="Stage" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C6D3C223-B35C-49D9-9424-E7E84978652C}" name="Value" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{90FA41A8-E060-47AD-98B3-46FB40FD2CFA}" name="A_C_S" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{F0B21C7E-F0EE-41FE-9E3E-6E3542E2C9CC}" name="tr" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{CF1F4F43-57E3-4043-87DF-28919C026D33}" name="en" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BCB40CDD-32DF-45B6-87AB-7EB427C69449}" name="Table7" displayName="Table7" ref="A1:B16" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BCB40CDD-32DF-45B6-87AB-7EB427C69449}" name="Table7" displayName="Table7" ref="A1:B16" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:B16" xr:uid="{56685988-E0A4-4B62-9FA7-B4A5D9078324}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{163B7C07-3D86-4729-BA13-8E73B4FAA4F8}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C6052AD1-D766-413B-A295-BF2B3D0E0681}" name="Column2" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{163B7C07-3D86-4729-BA13-8E73B4FAA4F8}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C6052AD1-D766-413B-A295-BF2B3D0E0681}" name="Column2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2796CF7D-0771-4A58-B1B9-E5E3C5FFA0A8}" name="Table4" displayName="Table4" ref="A1:C11" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2796CF7D-0771-4A58-B1B9-E5E3C5FFA0A8}" name="Table4" displayName="Table4" ref="A1:C11" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:C11" xr:uid="{07A34D8E-3CD6-43F3-9B16-17CA57E4EA2C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8512C3C3-F33C-4729-9861-0CA267FE27FB}" name="Tür" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A6D2C1D8-D1E9-42A4-9EF5-C4086A7E95DE}" name="İç Temsil" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5911F919-EB06-476C-8A27-820B2736CEC5}" name="Dizin" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8512C3C3-F33C-4729-9861-0CA267FE27FB}" name="Tür" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A6D2C1D8-D1E9-42A4-9EF5-C4086A7E95DE}" name="İç Temsil" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5911F919-EB06-476C-8A27-820B2736CEC5}" name="Dizin" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FBEE4589-99F3-4E68-92CB-D81D73F9EB7A}" name="Table13" displayName="Table13" ref="A1:C2" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FBEE4589-99F3-4E68-92CB-D81D73F9EB7A}" name="Table13" displayName="Table13" ref="A1:C2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C2" xr:uid="{5AE45118-2D58-4737-82DC-C7CC5AA5B398}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30AB40C1-4D8D-4A7C-A6C1-58F771AF78CC}" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{842533F5-29D3-483E-827D-EFD44B9FB974}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{30AB40C1-4D8D-4A7C-A6C1-58F771AF78CC}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{842533F5-29D3-483E-827D-EFD44B9FB974}" name="Column2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B1454598-D424-4366-836E-07384F0B1629}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3319,10 +3319,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B92D0-E456-4874-B017-A6C1773B3419}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>

--- a/FCC training/Eng - The Game.xlsx
+++ b/FCC training/Eng - The Game.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD426906-DDEF-4526-9CC1-A4C8381E6F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF6719-F1F5-4157-95F9-EF9DAADC8AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WEALTH" sheetId="14" r:id="rId1"/>
@@ -3319,10 +3319,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B92D0-E456-4874-B017-A6C1773B3419}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C11" sqref="C11"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
